--- a/CodeSystem-dk-core-cpr-identifier-system.xlsx
+++ b/CodeSystem-dk-core-cpr-identifier-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -391,7 +391,9 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">

--- a/CodeSystem-dk-core-cpr-identifier-system.xlsx
+++ b/CodeSystem-dk-core-cpr-identifier-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-dk-core-cpr-identifier-system.xlsx
+++ b/CodeSystem-dk-core-cpr-identifier-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
